--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pf4-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pf4-Fgfr2.xlsx
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>16.18643233333333</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H2">
-        <v>48.559297</v>
+        <v>0.842662</v>
       </c>
       <c r="I2">
-        <v>0.9796015993801145</v>
+        <v>0.5595554696739399</v>
       </c>
       <c r="J2">
-        <v>0.9796015993801146</v>
+        <v>0.5595554696739399</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4871643333333333</v>
+        <v>0.05601</v>
       </c>
       <c r="N2">
-        <v>1.461493</v>
+        <v>0.16803</v>
       </c>
       <c r="O2">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="P2">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="Q2">
-        <v>7.885452516713443</v>
+        <v>0.01573249954</v>
       </c>
       <c r="R2">
-        <v>70.969072650421</v>
+        <v>0.14159249586</v>
       </c>
       <c r="S2">
-        <v>0.1875406577493617</v>
+        <v>0.01516701826023454</v>
       </c>
       <c r="T2">
-        <v>0.1875406577493618</v>
+        <v>0.01516701826023454</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>16.18643233333333</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H3">
-        <v>48.559297</v>
+        <v>0.842662</v>
       </c>
       <c r="I3">
-        <v>0.9796015993801145</v>
+        <v>0.5595554696739399</v>
       </c>
       <c r="J3">
-        <v>0.9796015993801146</v>
+        <v>0.5595554696739399</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>1.864751</v>
       </c>
       <c r="N3">
-        <v>5.594252999999999</v>
+        <v>5.594253</v>
       </c>
       <c r="O3">
-        <v>0.7328098752209856</v>
+        <v>0.902427539668559</v>
       </c>
       <c r="P3">
-        <v>0.7328098752209857</v>
+        <v>0.9024275396685592</v>
       </c>
       <c r="Q3">
-        <v>30.18366588001566</v>
+        <v>0.5237849357206666</v>
       </c>
       <c r="R3">
-        <v>271.6529929201409</v>
+        <v>4.714064421486</v>
       </c>
       <c r="S3">
-        <v>0.7178617258080197</v>
+        <v>0.5049582658059386</v>
       </c>
       <c r="T3">
-        <v>0.7178617258080199</v>
+        <v>0.5049582658059386</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>16.18643233333333</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H4">
-        <v>48.559297</v>
+        <v>0.842662</v>
       </c>
       <c r="I4">
-        <v>0.9796015993801145</v>
+        <v>0.5595554696739399</v>
       </c>
       <c r="J4">
-        <v>0.9796015993801146</v>
+        <v>0.5595554696739399</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1927433333333333</v>
+        <v>0.145611</v>
       </c>
       <c r="N4">
-        <v>0.57823</v>
+        <v>0.436833</v>
       </c>
       <c r="O4">
-        <v>0.07574427794900063</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="P4">
-        <v>0.07574427794900064</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="Q4">
-        <v>3.119826922701111</v>
+        <v>0.040900285494</v>
       </c>
       <c r="R4">
-        <v>28.07844230431</v>
+        <v>0.368102569446</v>
       </c>
       <c r="S4">
-        <v>0.07419921582273295</v>
+        <v>0.03943018560776668</v>
       </c>
       <c r="T4">
-        <v>0.07419921582273298</v>
+        <v>0.03943018560776668</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.2210956666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.663287</v>
+      </c>
+      <c r="I5">
+        <v>0.4404445303260602</v>
+      </c>
+      <c r="J5">
+        <v>0.4404445303260602</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>0.3370526666666667</v>
-      </c>
-      <c r="H5">
-        <v>1.011158</v>
-      </c>
-      <c r="I5">
-        <v>0.02039840061988537</v>
-      </c>
-      <c r="J5">
-        <v>0.02039840061988537</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.4871643333333333</v>
+        <v>0.05601</v>
       </c>
       <c r="N5">
-        <v>1.461493</v>
+        <v>0.16803</v>
       </c>
       <c r="O5">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="P5">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="Q5">
-        <v>0.1642000376548889</v>
+        <v>0.01238356829</v>
       </c>
       <c r="R5">
-        <v>1.477800338894</v>
+        <v>0.11145211461</v>
       </c>
       <c r="S5">
-        <v>0.003905189080651829</v>
+        <v>0.01193845935947769</v>
       </c>
       <c r="T5">
-        <v>0.003905189080651831</v>
+        <v>0.01193845935947769</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.3370526666666667</v>
+        <v>0.2210956666666667</v>
       </c>
       <c r="H6">
-        <v>1.011158</v>
+        <v>0.663287</v>
       </c>
       <c r="I6">
-        <v>0.02039840061988537</v>
+        <v>0.4404445303260602</v>
       </c>
       <c r="J6">
-        <v>0.02039840061988537</v>
+        <v>0.4404445303260602</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>1.864751</v>
       </c>
       <c r="N6">
-        <v>5.594252999999999</v>
+        <v>5.594253</v>
       </c>
       <c r="O6">
-        <v>0.7328098752209856</v>
+        <v>0.902427539668559</v>
       </c>
       <c r="P6">
-        <v>0.7328098752209857</v>
+        <v>0.9024275396685592</v>
       </c>
       <c r="Q6">
-        <v>0.6285192972193333</v>
+        <v>0.4122883655123333</v>
       </c>
       <c r="R6">
-        <v>5.656673674973999</v>
+        <v>3.710595289611</v>
       </c>
       <c r="S6">
-        <v>0.01494814941296588</v>
+        <v>0.3974692738626206</v>
       </c>
       <c r="T6">
-        <v>0.01494814941296588</v>
+        <v>0.3974692738626206</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.3370526666666667</v>
+        <v>0.2210956666666667</v>
       </c>
       <c r="H7">
-        <v>1.011158</v>
+        <v>0.663287</v>
       </c>
       <c r="I7">
-        <v>0.02039840061988537</v>
+        <v>0.4404445303260602</v>
       </c>
       <c r="J7">
-        <v>0.02039840061988537</v>
+        <v>0.4404445303260602</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1927433333333333</v>
+        <v>0.145611</v>
       </c>
       <c r="N7">
-        <v>0.57823</v>
+        <v>0.436833</v>
       </c>
       <c r="O7">
-        <v>0.07574427794900063</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="P7">
-        <v>0.07574427794900064</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="Q7">
-        <v>0.06496465448222223</v>
+        <v>0.032193961119</v>
       </c>
       <c r="R7">
-        <v>0.5846818903400001</v>
+        <v>0.289745650071</v>
       </c>
       <c r="S7">
-        <v>0.001545062126267664</v>
+        <v>0.0310367971039619</v>
       </c>
       <c r="T7">
-        <v>0.001545062126267665</v>
+        <v>0.0310367971039619</v>
       </c>
     </row>
   </sheetData>
